--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd7c86308e28e900/Desktop/Umich/RCT_Bench/cleaned_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0CFF14-CDE5-4BD3-9CB7-DAFC37E6E368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{ED0CFF14-CDE5-4BD3-9CB7-DAFC37E6E368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB1581AB-0982-4F3F-9548-97676A04701F}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="375">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -1414,17 +1414,27 @@
 Multiple imputation for missing baseline measures (except HbA1c, which was complete)
 Inverse covariance weighting for creating index scores from multiple survey measures</t>
   </si>
+  <si>
+    <t>Citation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1694,156 +1704,171 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1851,85 +1876,70 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2209,35 +2219,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.453125" style="47" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="47" customWidth="1"/>
+    <col min="4" max="5" width="16.140625" style="11" customWidth="1"/>
     <col min="6" max="6" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31" style="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37" style="48" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="48.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1">
+    <row r="1" spans="1:18" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -2289,8 +2300,11 @@
       <c r="Q1" s="4" t="s">
         <v>174</v>
       </c>
+      <c r="R1" s="4" t="s">
+        <v>374</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="72.5">
+    <row r="2" spans="1:18" ht="75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2340,8 +2354,11 @@
         <v>314</v>
       </c>
       <c r="Q2" s="8"/>
+      <c r="R2" s="8">
+        <v>71</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="87">
+    <row r="3" spans="1:18" ht="90">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2391,8 +2408,11 @@
         <v>335</v>
       </c>
       <c r="Q3" s="9"/>
+      <c r="R3" s="9">
+        <v>123</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="159.5">
+    <row r="4" spans="1:18" ht="180">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2442,8 +2462,11 @@
         <v>294</v>
       </c>
       <c r="Q4" s="25"/>
+      <c r="R4" s="25">
+        <v>196</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="130.5">
+    <row r="5" spans="1:18" ht="135">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2493,8 +2516,11 @@
         <v>295</v>
       </c>
       <c r="Q5" s="25"/>
+      <c r="R5" s="25">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="174">
+    <row r="6" spans="1:18" ht="195">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2544,8 +2570,11 @@
         <v>294</v>
       </c>
       <c r="Q6" s="25"/>
+      <c r="R6" s="25">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="101.5">
+    <row r="7" spans="1:18" ht="120">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2595,8 +2624,11 @@
         <v>328</v>
       </c>
       <c r="Q7" s="9"/>
+      <c r="R7" s="9">
+        <v>74</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="130.5">
+    <row r="8" spans="1:18" ht="135">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2646,8 +2678,11 @@
         <v>329</v>
       </c>
       <c r="Q8" s="9"/>
+      <c r="R8" s="9">
+        <v>9</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" ht="87">
+    <row r="9" spans="1:18" ht="90">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2699,8 +2734,11 @@
       <c r="Q9" s="9" t="s">
         <v>175</v>
       </c>
+      <c r="R9" s="9">
+        <v>111</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" ht="116">
+    <row r="10" spans="1:18" ht="120">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2752,8 +2790,11 @@
       <c r="Q10" s="9" t="s">
         <v>176</v>
       </c>
+      <c r="R10" s="9">
+        <v>73</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" ht="261">
+    <row r="11" spans="1:18" ht="270">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2803,8 +2844,11 @@
         <v>306</v>
       </c>
       <c r="Q11" s="8"/>
+      <c r="R11" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" ht="116">
+    <row r="12" spans="1:18" ht="135">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2854,8 +2898,11 @@
         <v>331</v>
       </c>
       <c r="Q12" s="8"/>
+      <c r="R12" s="8">
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" ht="203">
+    <row r="13" spans="1:18" ht="225">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -2905,8 +2952,11 @@
         <v>347</v>
       </c>
       <c r="Q13" s="9"/>
+      <c r="R13" s="9">
+        <v>45</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" ht="72.5">
+    <row r="14" spans="1:18" ht="90">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2956,8 +3006,11 @@
         <v>303</v>
       </c>
       <c r="Q14" s="9"/>
+      <c r="R14" s="9">
+        <v>23</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" ht="174">
+    <row r="15" spans="1:18" ht="195">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3007,8 +3060,11 @@
         <v>332</v>
       </c>
       <c r="Q15" s="8"/>
+      <c r="R15" s="8">
+        <v>299</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" ht="116">
+    <row r="16" spans="1:18" ht="120">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3058,8 +3114,11 @@
         <v>333</v>
       </c>
       <c r="Q16" s="9"/>
+      <c r="R16" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:17" ht="43.5">
+    <row r="17" spans="1:18" ht="60">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3109,8 +3168,11 @@
         <v>334</v>
       </c>
       <c r="Q17" s="8"/>
+      <c r="R17" s="8">
+        <v>83</v>
+      </c>
     </row>
-    <row r="18" spans="1:17" ht="116">
+    <row r="18" spans="1:18" ht="120">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3160,8 +3222,11 @@
         <v>328</v>
       </c>
       <c r="Q18" s="8"/>
+      <c r="R18" s="8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:17" ht="145">
+    <row r="19" spans="1:18" ht="180">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3211,8 +3276,11 @@
         <v>305</v>
       </c>
       <c r="Q19" s="8"/>
+      <c r="R19" s="8">
+        <v>16</v>
+      </c>
     </row>
-    <row r="20" spans="1:17" ht="116">
+    <row r="20" spans="1:18" ht="135">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3262,8 +3330,11 @@
         <v>336</v>
       </c>
       <c r="Q20" s="8"/>
+      <c r="R20" s="8">
+        <v>28</v>
+      </c>
     </row>
-    <row r="21" spans="1:17" ht="87">
+    <row r="21" spans="1:18" ht="90">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3313,8 +3384,11 @@
         <v>337</v>
       </c>
       <c r="Q21" s="8"/>
+      <c r="R21" s="8">
+        <v>37</v>
+      </c>
     </row>
-    <row r="22" spans="1:17" ht="87">
+    <row r="22" spans="1:18" ht="90">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3364,8 +3438,11 @@
         <v>305</v>
       </c>
       <c r="Q22" s="8"/>
+      <c r="R22" s="8">
+        <v>67</v>
+      </c>
     </row>
-    <row r="23" spans="1:17" ht="43.5">
+    <row r="23" spans="1:18" ht="60">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -3413,8 +3490,11 @@
         <v>338</v>
       </c>
       <c r="Q23" s="25"/>
+      <c r="R23" s="25">
+        <v>8</v>
+      </c>
     </row>
-    <row r="24" spans="1:17" ht="87">
+    <row r="24" spans="1:18" ht="90">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3464,8 +3544,11 @@
         <v>339</v>
       </c>
       <c r="Q24" s="14"/>
+      <c r="R24" s="14">
+        <v>45</v>
+      </c>
     </row>
-    <row r="25" spans="1:17" ht="145">
+    <row r="25" spans="1:18" ht="165">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3515,8 +3598,11 @@
         <v>306</v>
       </c>
       <c r="Q25" s="12"/>
+      <c r="R25" s="12">
+        <v>10</v>
+      </c>
     </row>
-    <row r="26" spans="1:17" ht="159.5">
+    <row r="26" spans="1:18" ht="180">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3566,8 +3652,11 @@
         <v>307</v>
       </c>
       <c r="Q26" s="12"/>
+      <c r="R26" s="12">
+        <v>174</v>
+      </c>
     </row>
-    <row r="27" spans="1:17" ht="159.5">
+    <row r="27" spans="1:18" ht="180">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3617,8 +3706,11 @@
         <v>305</v>
       </c>
       <c r="Q27" s="30"/>
+      <c r="R27" s="30">
+        <v>121</v>
+      </c>
     </row>
-    <row r="28" spans="1:17" ht="87">
+    <row r="28" spans="1:18" ht="105">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3668,8 +3760,11 @@
         <v>306</v>
       </c>
       <c r="Q28" s="12"/>
+      <c r="R28" s="12">
+        <v>8</v>
+      </c>
     </row>
-    <row r="29" spans="1:17" ht="130.5">
+    <row r="29" spans="1:18" ht="150">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3719,8 +3814,11 @@
         <v>340</v>
       </c>
       <c r="Q29" s="12"/>
+      <c r="R29" s="12">
+        <v>38</v>
+      </c>
     </row>
-    <row r="30" spans="1:17" ht="188.5">
+    <row r="30" spans="1:18" ht="210">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -3770,8 +3868,11 @@
         <v>305</v>
       </c>
       <c r="Q30" s="25"/>
+      <c r="R30" s="25">
+        <v>132</v>
+      </c>
     </row>
-    <row r="31" spans="1:17" ht="159.5">
+    <row r="31" spans="1:18" ht="165">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3821,8 +3922,11 @@
         <v>334</v>
       </c>
       <c r="Q31" s="12"/>
+      <c r="R31" s="12">
+        <v>3</v>
+      </c>
     </row>
-    <row r="32" spans="1:17" ht="101.5">
+    <row r="32" spans="1:18" ht="105">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -3870,8 +3974,11 @@
         <v>341</v>
       </c>
       <c r="Q32" s="25"/>
+      <c r="R32" s="25">
+        <v>77</v>
+      </c>
     </row>
-    <row r="33" spans="1:17" ht="174">
+    <row r="33" spans="1:18" ht="180">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3921,8 +4028,11 @@
         <v>359</v>
       </c>
       <c r="Q33" s="25"/>
+      <c r="R33" s="25">
+        <v>33</v>
+      </c>
     </row>
-    <row r="34" spans="1:17" ht="116">
+    <row r="34" spans="1:18" ht="120">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -3970,8 +4080,11 @@
         <v>342</v>
       </c>
       <c r="Q34" s="25"/>
+      <c r="R34" s="25">
+        <v>51</v>
+      </c>
     </row>
-    <row r="35" spans="1:17" ht="87">
+    <row r="35" spans="1:18" ht="90">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4021,8 +4134,11 @@
         <v>338</v>
       </c>
       <c r="Q35" s="25"/>
+      <c r="R35" s="25">
+        <v>591</v>
+      </c>
     </row>
-    <row r="36" spans="1:17" ht="87">
+    <row r="36" spans="1:18" ht="105">
       <c r="A36" s="16">
         <v>35</v>
       </c>
@@ -4072,8 +4188,11 @@
         <v>338</v>
       </c>
       <c r="Q36" s="25"/>
+      <c r="R36" s="25">
+        <v>195</v>
+      </c>
     </row>
-    <row r="37" spans="1:17" ht="145">
+    <row r="37" spans="1:18" ht="165">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4123,8 +4242,11 @@
         <v>307</v>
       </c>
       <c r="Q37" s="25"/>
+      <c r="R37" s="25">
+        <v>4</v>
+      </c>
     </row>
-    <row r="38" spans="1:17" ht="116">
+    <row r="38" spans="1:18" ht="120">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -4174,8 +4296,11 @@
         <v>343</v>
       </c>
       <c r="Q38" s="25"/>
+      <c r="R38" s="25">
+        <v>961</v>
+      </c>
     </row>
-    <row r="39" spans="1:17" ht="116">
+    <row r="39" spans="1:18" ht="120">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4225,8 +4350,11 @@
         <v>305</v>
       </c>
       <c r="Q39" s="25"/>
+      <c r="R39" s="25">
+        <v>1512</v>
+      </c>
     </row>
-    <row r="40" spans="1:17" ht="101.5">
+    <row r="40" spans="1:18" ht="105">
       <c r="A40" s="16">
         <v>39</v>
       </c>
@@ -4276,8 +4404,11 @@
         <v>345</v>
       </c>
       <c r="Q40" s="25"/>
+      <c r="R40" s="25">
+        <v>124</v>
+      </c>
     </row>
-    <row r="41" spans="1:17" ht="246.5">
+    <row r="41" spans="1:18" ht="285">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4327,8 +4458,11 @@
         <v>306</v>
       </c>
       <c r="Q41" s="25"/>
+      <c r="R41" s="25">
+        <v>58</v>
+      </c>
     </row>
-    <row r="42" spans="1:17" ht="145">
+    <row r="42" spans="1:18" ht="165">
       <c r="A42" s="16">
         <v>41</v>
       </c>
@@ -4378,8 +4512,11 @@
         <v>306</v>
       </c>
       <c r="Q42" s="25"/>
+      <c r="R42" s="25">
+        <v>71</v>
+      </c>
     </row>
-    <row r="43" spans="1:17" ht="174">
+    <row r="43" spans="1:18" ht="195">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4429,8 +4566,11 @@
         <v>306</v>
       </c>
       <c r="Q43" s="25"/>
+      <c r="R43" s="25">
+        <v>14</v>
+      </c>
     </row>
-    <row r="44" spans="1:17" ht="159.5">
+    <row r="44" spans="1:18" ht="165">
       <c r="A44" s="16">
         <v>43</v>
       </c>
@@ -4480,8 +4620,11 @@
         <v>338</v>
       </c>
       <c r="Q44" s="25"/>
+      <c r="R44" s="25">
+        <v>797</v>
+      </c>
     </row>
-    <row r="45" spans="1:17" ht="116">
+    <row r="45" spans="1:18" ht="120">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4531,8 +4674,11 @@
         <v>306</v>
       </c>
       <c r="Q45" s="25"/>
+      <c r="R45" s="25">
+        <v>8</v>
+      </c>
     </row>
-    <row r="46" spans="1:17" ht="116">
+    <row r="46" spans="1:18" ht="135">
       <c r="A46" s="16">
         <v>45</v>
       </c>
@@ -4582,8 +4728,11 @@
         <v>347</v>
       </c>
       <c r="Q46" s="25"/>
+      <c r="R46" s="25">
+        <v>3</v>
+      </c>
     </row>
-    <row r="47" spans="1:17" ht="174">
+    <row r="47" spans="1:18" ht="180">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4631,8 +4780,11 @@
         <v>316</v>
       </c>
       <c r="Q47" s="25"/>
+      <c r="R47" s="25">
+        <v>16</v>
+      </c>
     </row>
-    <row r="48" spans="1:17" ht="174">
+    <row r="48" spans="1:18" ht="195">
       <c r="A48" s="16">
         <v>47</v>
       </c>
@@ -4682,8 +4834,11 @@
         <v>317</v>
       </c>
       <c r="Q48" s="25"/>
+      <c r="R48" s="25">
+        <v>12</v>
+      </c>
     </row>
-    <row r="49" spans="1:17" ht="203">
+    <row r="49" spans="1:18" ht="225">
       <c r="A49" s="16">
         <v>48</v>
       </c>
@@ -4733,8 +4888,11 @@
         <v>347</v>
       </c>
       <c r="Q49" s="25"/>
+      <c r="R49" s="25">
+        <v>201</v>
+      </c>
     </row>
-    <row r="50" spans="1:17" ht="145">
+    <row r="50" spans="1:18" ht="165">
       <c r="A50" s="16">
         <v>49</v>
       </c>
@@ -4784,8 +4942,11 @@
         <v>318</v>
       </c>
       <c r="Q50" s="25"/>
+      <c r="R50" s="25">
+        <v>53</v>
+      </c>
     </row>
-    <row r="51" spans="1:17" ht="87">
+    <row r="51" spans="1:18" ht="105">
       <c r="A51" s="16">
         <v>50</v>
       </c>
@@ -4835,6 +4996,9 @@
         <v>348</v>
       </c>
       <c r="Q51" s="25"/>
+      <c r="R51" s="25">
+        <v>751</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
